--- a/data/phenotypes/Injury data.xlsx
+++ b/data/phenotypes/Injury data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vistor/Documents/Work/GitHub/PhD/ms_epi_effort/data/phenotypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D7277-17FC-EC48-B46F-2E3D89EBD8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD62982-3C44-FE45-A046-182C138BC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -71,36 +71,6 @@
     <t>Ring</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Right_EC</t>
-  </si>
-  <si>
-    <t>Left_EC</t>
-  </si>
-  <si>
-    <t>Beak</t>
-  </si>
-  <si>
-    <t>Neck</t>
-  </si>
-  <si>
-    <t>Belly</t>
-  </si>
-  <si>
-    <t>Dim.3</t>
-  </si>
-  <si>
-    <t>Dim.4</t>
-  </si>
-  <si>
-    <t>Dim.5</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
     <t>D211334</t>
   </si>
   <si>
@@ -309,6 +279,24 @@
   </si>
   <si>
     <t>D489</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>injury_right_ey</t>
+  </si>
+  <si>
+    <t>injury_left_ec</t>
+  </si>
+  <si>
+    <t>injury_beak</t>
+  </si>
+  <si>
+    <t>injury_neck</t>
+  </si>
+  <si>
+    <t>injury_belly</t>
   </si>
 </sst>
 </file>
@@ -728,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,7 +727,7 @@
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,45 +735,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>38849</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>1220</v>
@@ -805,31 +778,13 @@
       <c r="H2" s="4">
         <v>0.6</v>
       </c>
-      <c r="J2" s="4">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4">
-        <v>5.2690265780000001</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.274353656</v>
-      </c>
-      <c r="M2" s="4">
-        <v>-0.55230418999999997</v>
-      </c>
-      <c r="N2" s="4">
-        <v>-0.35780489799999998</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1.1909663124000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>39211</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>1200</v>
@@ -849,31 +804,13 @@
       <c r="H3" s="4">
         <v>7</v>
       </c>
-      <c r="J3" s="4">
-        <v>47</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4.1290766369999998</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1.0497273570000001</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.711345364</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1.791172357</v>
-      </c>
-      <c r="O3" s="4">
-        <v>-0.85769529440000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>38847</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>1190</v>
@@ -893,31 +830,13 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="4">
-        <v>55</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3.6653820929999998</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.45089622600000001</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1.2065531039999999</v>
-      </c>
-      <c r="N4" s="4">
-        <v>-1.0839769379999999</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1.7424163819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>39177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>1260</v>
@@ -937,31 +856,13 @@
       <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="2">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.9064673060000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>4.8223146000000001E-2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-1.6327844149999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.25882982799999998</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.48557760859999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>38492</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>1150</v>
@@ -981,31 +882,13 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.434589903</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5.5180167000000002E-2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>9.6390333999999994E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-0.95520211099999996</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.3248685388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>38850</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>1340</v>
@@ -1025,31 +908,13 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
-        <v>60</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.285527788</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-0.15391342799999999</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.63304251099999997</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.209227375</v>
-      </c>
-      <c r="O7" s="2">
-        <v>-1.5786818708000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>38853</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>1200</v>
@@ -1069,31 +934,13 @@
       <c r="H8" s="2">
         <v>2.4</v>
       </c>
-      <c r="J8" s="2">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.0843509020000002</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-9.0504726999999993E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-2.0545725720000001</v>
-      </c>
-      <c r="N8" s="2">
-        <v>9.5197579999999997E-3</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-0.61416906179999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>38495</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>1300</v>
@@ -1113,31 +960,13 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1.956191738</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-0.43216757700000002</v>
-      </c>
-      <c r="M9" s="4">
-        <v>6.9942470000000003E-3</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1.4365156429999999</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-3.97870694E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>38491</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
         <v>1300</v>
@@ -1157,28 +986,10 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>28</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1.628803276</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-8.5556880000000005E-3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>-0.58880456400000003</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-1.660111651</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2.4298027100000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
@@ -1195,31 +1006,13 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
-        <v>29</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.628803276</v>
-      </c>
-      <c r="L11" s="2">
-        <v>-8.5556880000000005E-3</v>
-      </c>
-      <c r="M11" s="2">
-        <v>-0.58880456400000003</v>
-      </c>
-      <c r="N11" s="2">
-        <v>-1.660111651</v>
-      </c>
-      <c r="O11" s="2">
-        <v>2.4298027100000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>38848</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>1240</v>
@@ -1239,31 +1032,13 @@
       <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="4">
-        <v>12</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1.554184655</v>
-      </c>
-      <c r="L12" s="4">
-        <v>6.7005089000000004E-2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>-0.72500382500000005</v>
-      </c>
-      <c r="N12" s="4">
-        <v>-0.406160511</v>
-      </c>
-      <c r="O12" s="4">
-        <v>-0.91761781210000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>38847</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>1220</v>
@@ -1283,31 +1058,13 @@
       <c r="H13" s="4">
         <v>6</v>
       </c>
-      <c r="J13" s="4">
-        <v>52</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1.4999005299999999</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.47124231700000002</v>
-      </c>
-      <c r="M13" s="4">
-        <v>-0.862477312</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0.24432685300000001</v>
-      </c>
-      <c r="O13" s="4">
-        <v>-1.0612825621999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39177</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>1240</v>
@@ -1327,31 +1084,13 @@
       <c r="H14" s="2">
         <v>7.8</v>
       </c>
-      <c r="J14" s="2">
-        <v>4</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.34893833</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.89751525799999998</v>
-      </c>
-      <c r="M14" s="2">
-        <v>-0.569477821</v>
-      </c>
-      <c r="N14" s="2">
-        <v>-0.80053387799999998</v>
-      </c>
-      <c r="O14" s="2">
-        <v>-0.66742102690000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>38849</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>1200</v>
@@ -1371,31 +1110,13 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="4">
-        <v>71</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1.3471317679999999</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2.7076638E-2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>-2.4988565820000002</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.16140738900000001</v>
-      </c>
-      <c r="O15" s="4">
-        <v>-2.34895504E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39330</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>1260</v>
@@ -1415,31 +1136,13 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="2">
-        <v>39</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.2164950940000001</v>
-      </c>
-      <c r="L16" s="2">
-        <v>-2.9016272999999999E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.4020119230000001</v>
-      </c>
-      <c r="N16" s="2">
-        <v>-0.36486417900000001</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.24094506469999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>38848</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <v>1290</v>
@@ -1459,31 +1162,13 @@
       <c r="H17" s="4">
         <v>3</v>
       </c>
-      <c r="J17" s="4">
-        <v>13</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1.2015980879999999</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.24801414199999999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.67311395600000001</v>
-      </c>
-      <c r="N17" s="4">
-        <v>-2.6763199000000001E-2</v>
-      </c>
-      <c r="O17" s="4">
-        <v>-0.36532336339999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>38852</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>1240</v>
@@ -1503,31 +1188,13 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="J18" s="4">
-        <v>64</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1.1821746319999999</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-0.50891214900000004</v>
-      </c>
-      <c r="M18" s="4">
-        <v>-1.377405698</v>
-      </c>
-      <c r="N18" s="4">
-        <v>-8.1343779000000005E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.63014859359999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>38849</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>1240</v>
@@ -1547,31 +1214,13 @@
       <c r="H19" s="4">
         <v>4</v>
       </c>
-      <c r="J19" s="4">
-        <v>70</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.86105424100000005</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-1.9680475999999999E-2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.69025392500000005</v>
-      </c>
-      <c r="N19" s="4">
-        <v>2.102085625</v>
-      </c>
-      <c r="O19" s="4">
-        <v>-0.77249841659999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>38854</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <v>1170</v>
@@ -1591,31 +1240,13 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="4">
-        <v>30</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.84382836000000006</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-0.36174838599999998</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1.0251127149999999</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.90888950599999996</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.19119080890000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>38854</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <v>1110</v>
@@ -1635,31 +1266,13 @@
       <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
-        <v>31</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.78087201699999997</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-0.32577804100000002</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.882720481</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1.0569977859999999</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0.84256706339999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>39210</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <v>1290</v>
@@ -1679,31 +1292,13 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.72807870600000002</v>
-      </c>
-      <c r="L22" s="4">
-        <v>-0.29599523100000003</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.19765655600000001</v>
-      </c>
-      <c r="N22" s="4">
-        <v>-0.178789227</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0.1281217486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>38850</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <v>1280</v>
@@ -1723,31 +1318,13 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="J23" s="4">
-        <v>61</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.72481687699999997</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-0.20461616999999999</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1.184114243</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0.45465074799999999</v>
-      </c>
-      <c r="O23" s="4">
-        <v>-0.85487173930000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>39211</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
         <v>1200</v>
@@ -1767,31 +1344,13 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="4">
-        <v>48</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.70745053000000002</v>
-      </c>
-      <c r="L24" s="4">
-        <v>-0.65892238999999997</v>
-      </c>
-      <c r="M24" s="4">
-        <v>-0.95481620199999995</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0.95658529800000003</v>
-      </c>
-      <c r="O24" s="4">
-        <v>-2.4017825499999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>38848</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
         <v>1140</v>
@@ -1811,31 +1370,13 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="J25" s="4">
-        <v>57</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.587182227</v>
-      </c>
-      <c r="L25" s="4">
-        <v>-0.13688055299999999</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.96602550899999995</v>
-      </c>
-      <c r="N25" s="4">
-        <v>-0.34324560199999998</v>
-      </c>
-      <c r="O25" s="4">
-        <v>-0.46359586699999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>38846</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C26" s="5">
         <v>1240</v>
@@ -1855,31 +1396,13 @@
       <c r="H26" s="4">
         <v>5</v>
       </c>
-      <c r="J26" s="4">
-        <v>50</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.58063873300000002</v>
-      </c>
-      <c r="L26" s="4">
-        <v>-4.2082924000000001E-2</v>
-      </c>
-      <c r="M26" s="4">
-        <v>-2.5159364690000001</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0.18084731400000001</v>
-      </c>
-      <c r="O26" s="4">
-        <v>-0.68953237050000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38849</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <v>1220</v>
@@ -1899,31 +1422,13 @@
       <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="4">
-        <v>58</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.56478388300000004</v>
-      </c>
-      <c r="L27" s="4">
-        <v>-0.45653754200000002</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.53319862799999995</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1.539212808</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0.28810415319999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>39207</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2">
         <v>1270</v>
@@ -1943,31 +1448,13 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
-        <v>9</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.43504536700000002</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.135059076</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.71653683099999999</v>
-      </c>
-      <c r="N28" s="2">
-        <v>-2.2072790449999999</v>
-      </c>
-      <c r="O28" s="2">
-        <v>-0.34955072659999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>38848</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
         <v>1140</v>
@@ -1987,31 +1474,13 @@
       <c r="H29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="4">
-        <v>10</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.39382162599999998</v>
-      </c>
-      <c r="L29" s="4">
-        <v>-5.9840286999999999E-2</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.81911761400000005</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1.076176424</v>
-      </c>
-      <c r="O29" s="4">
-        <v>-0.1108107082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>38847</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
         <v>1280</v>
@@ -2031,31 +1500,13 @@
       <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="J30" s="4">
-        <v>51</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.19039826100000001</v>
-      </c>
-      <c r="L30" s="4">
-        <v>-0.41003512600000003</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.47785381799999999</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1.0072481310000001</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0.1253315841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>38853</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
         <v>1180</v>
@@ -2075,31 +1526,13 @@
       <c r="H31" s="2">
         <v>3</v>
       </c>
-      <c r="J31" s="2">
-        <v>67</v>
-      </c>
-      <c r="K31" s="2">
-        <v>7.9285808999999999E-2</v>
-      </c>
-      <c r="L31" s="2">
-        <v>-0.40610479700000002</v>
-      </c>
-      <c r="M31" s="2">
-        <v>-2.7532039259999999</v>
-      </c>
-      <c r="N31" s="2">
-        <v>-5.6716388E-2</v>
-      </c>
-      <c r="O31" s="2">
-        <v>-0.1876212786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>38850</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <v>1180</v>
@@ -2119,31 +1552,13 @@
       <c r="H32" s="4">
         <v>5</v>
       </c>
-      <c r="J32" s="4">
-        <v>72</v>
-      </c>
-      <c r="K32" s="4">
-        <v>-8.1778709999999998E-3</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0.45403837200000002</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.89041006899999997</v>
-      </c>
-      <c r="N32" s="4">
-        <v>-0.60209120599999999</v>
-      </c>
-      <c r="O32" s="4">
-        <v>8.3639129899999998E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>38855</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <v>1220</v>
@@ -2163,31 +1578,13 @@
       <c r="H33" s="2">
         <v>5</v>
       </c>
-      <c r="J33" s="2">
-        <v>76</v>
-      </c>
-      <c r="K33" s="2">
-        <v>-2.2680081000000001E-2</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.65824238300000004</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.85901012399999999</v>
-      </c>
-      <c r="N33" s="2">
-        <v>-1.6682283</v>
-      </c>
-      <c r="O33" s="2">
-        <v>-0.193591602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>38848</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4">
         <v>1210</v>
@@ -2207,31 +1604,13 @@
       <c r="H34" s="4">
         <v>4</v>
       </c>
-      <c r="J34" s="4">
-        <v>69</v>
-      </c>
-      <c r="K34" s="4">
-        <v>-7.742098E-2</v>
-      </c>
-      <c r="L34" s="4">
-        <v>-1.3840844E-2</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.14369674599999999</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0.41990024799999998</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0.56677278809999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>38498</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4">
         <v>1230</v>
@@ -2251,31 +1630,13 @@
       <c r="H35" s="4">
         <v>12</v>
       </c>
-      <c r="J35" s="4">
-        <v>25</v>
-      </c>
-      <c r="K35" s="4">
-        <v>-0.129470577</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1.4381526630000001</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0.66770779899999999</v>
-      </c>
-      <c r="N35" s="4">
-        <v>-0.94992893499999997</v>
-      </c>
-      <c r="O35" s="4">
-        <v>-0.31248011570000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>38852</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2">
         <v>1180</v>
@@ -2295,31 +1656,13 @@
       <c r="H36" s="2">
         <v>0.6</v>
       </c>
-      <c r="J36" s="2">
-        <v>73</v>
-      </c>
-      <c r="K36" s="2">
-        <v>-0.17698651100000001</v>
-      </c>
-      <c r="L36" s="2">
-        <v>-0.413622451</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.429686187</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.46624185299999998</v>
-      </c>
-      <c r="O36" s="2">
-        <v>-4.0744483200000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>38852</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
         <v>1280</v>
@@ -2339,31 +1682,13 @@
       <c r="H37" s="4">
         <v>0.6</v>
       </c>
-      <c r="J37" s="4">
-        <v>63</v>
-      </c>
-      <c r="K37" s="4">
-        <v>-0.193933038</v>
-      </c>
-      <c r="L37" s="4">
-        <v>-0.42450611300000002</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0.59248953800000004</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0.41223622599999998</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0.5898857126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>39216</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2">
         <v>1150</v>
@@ -2383,31 +1708,13 @@
       <c r="H38" s="2">
         <v>4.8</v>
       </c>
-      <c r="J38" s="2">
-        <v>38</v>
-      </c>
-      <c r="K38" s="2">
-        <v>-0.25221431799999999</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.49155434999999997</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0.67588021099999995</v>
-      </c>
-      <c r="N38" s="2">
-        <v>-1.2445397060000001</v>
-      </c>
-      <c r="O38" s="2">
-        <v>-0.11907606549999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <v>1280</v>
@@ -2427,31 +1734,13 @@
       <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="J39" s="2">
-        <v>33</v>
-      </c>
-      <c r="K39" s="2">
-        <v>-0.28627954300000003</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0.135608805</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0.47344977399999999</v>
-      </c>
-      <c r="N39" s="2">
-        <v>-1.617024129</v>
-      </c>
-      <c r="O39" s="2">
-        <v>5.9681039999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39056</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2">
         <v>1140</v>
@@ -2471,31 +1760,13 @@
       <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="J40" s="2">
-        <v>59</v>
-      </c>
-      <c r="K40" s="2">
-        <v>-0.30050469099999999</v>
-      </c>
-      <c r="L40" s="2">
-        <v>-0.43435429199999998</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0.32914975699999999</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0.68938815099999995</v>
-      </c>
-      <c r="O40" s="2">
-        <v>6.4265779999999998E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38847</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C41" s="4">
         <v>1340</v>
@@ -2515,31 +1786,13 @@
       <c r="H41" s="4">
         <v>6</v>
       </c>
-      <c r="J41" s="4">
-        <v>54</v>
-      </c>
-      <c r="K41" s="4">
-        <v>-0.30544086799999998</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0.68386318800000001</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0.71655846300000003</v>
-      </c>
-      <c r="N41" s="4">
-        <v>-1.2001827199999999</v>
-      </c>
-      <c r="O41" s="4">
-        <v>-0.7268939848</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38493</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4">
         <v>1220</v>
@@ -2559,31 +1812,13 @@
       <c r="H42" s="4">
         <v>16</v>
       </c>
-      <c r="J42" s="4">
-        <v>21</v>
-      </c>
-      <c r="K42" s="4">
-        <v>-0.32261151100000002</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1.8025816729999999</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0.40924722600000002</v>
-      </c>
-      <c r="N42" s="4">
-        <v>-0.59127218699999995</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0.38906147050000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>38486</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4">
         <v>1100</v>
@@ -2603,31 +1838,13 @@
       <c r="H43" s="4">
         <v>0</v>
       </c>
-      <c r="J43" s="4">
-        <v>19</v>
-      </c>
-      <c r="K43" s="4">
-        <v>-0.37685963900000002</v>
-      </c>
-      <c r="L43" s="4">
-        <v>-0.481101956</v>
-      </c>
-      <c r="M43" s="4">
-        <v>-0.28644035400000001</v>
-      </c>
-      <c r="N43" s="4">
-        <v>-0.54626844200000002</v>
-      </c>
-      <c r="O43" s="4">
-        <v>0.5472505003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>39218</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
         <v>1250</v>
@@ -2647,31 +1864,13 @@
       <c r="H44" s="2">
         <v>7.8</v>
       </c>
-      <c r="J44" s="2">
-        <v>34</v>
-      </c>
-      <c r="K44" s="2">
-        <v>-0.42781846699999998</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0.25830555100000002</v>
-      </c>
-      <c r="M44" s="2">
-        <v>-1.229375952</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.44317091600000003</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0.42165273240000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>38852</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4">
         <v>1320</v>
@@ -2691,31 +1890,13 @@
       <c r="H45" s="4">
         <v>1</v>
       </c>
-      <c r="J45" s="4">
-        <v>62</v>
-      </c>
-      <c r="K45" s="4">
-        <v>-0.46786919100000002</v>
-      </c>
-      <c r="L45" s="4">
-        <v>-0.55253285399999996</v>
-      </c>
-      <c r="M45" s="4">
-        <v>-7.9089967999999997E-2</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0.57706744200000004</v>
-      </c>
-      <c r="O45" s="4">
-        <v>0.85833630729999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>38848</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4">
         <v>1200</v>
@@ -2735,31 +1916,13 @@
       <c r="H46" s="4">
         <v>2.5</v>
       </c>
-      <c r="J46" s="4">
-        <v>11</v>
-      </c>
-      <c r="K46" s="4">
-        <v>-0.531284847</v>
-      </c>
-      <c r="L46" s="4">
-        <v>-0.30979058599999998</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0.40276947499999999</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0.97199363900000002</v>
-      </c>
-      <c r="O46" s="4">
-        <v>7.6710748400000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>38847</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4">
         <v>1280</v>
@@ -2779,31 +1942,13 @@
       <c r="H47" s="4">
         <v>3</v>
       </c>
-      <c r="J47" s="4">
-        <v>56</v>
-      </c>
-      <c r="K47" s="4">
-        <v>-0.55086405699999996</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0.29436310300000001</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0.87438364000000002</v>
-      </c>
-      <c r="N47" s="4">
-        <v>-1.436630131</v>
-      </c>
-      <c r="O47" s="4">
-        <v>-0.48590142159999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>38859</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2">
         <v>1230</v>
@@ -2823,31 +1968,13 @@
       <c r="H48" s="2">
         <v>4.5</v>
       </c>
-      <c r="J48" s="2">
-        <v>32</v>
-      </c>
-      <c r="K48" s="2">
-        <v>-0.56139287299999996</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0.38553945499999998</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0.78176751799999999</v>
-      </c>
-      <c r="N48" s="2">
-        <v>-0.84265276899999997</v>
-      </c>
-      <c r="O48" s="2">
-        <v>-0.65021303539999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>39177</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
         <v>1220</v>
@@ -2867,31 +1994,13 @@
       <c r="H49" s="2">
         <v>0.6</v>
       </c>
-      <c r="J49" s="2">
-        <v>8</v>
-      </c>
-      <c r="K49" s="2">
-        <v>-0.63566546199999996</v>
-      </c>
-      <c r="L49" s="2">
-        <v>-0.47998123500000001</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0.21877233900000001</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.13114968799999999</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0.45229500439999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>39206</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C50" s="4">
         <v>1230</v>
@@ -2911,31 +2020,13 @@
       <c r="H50" s="4">
         <v>0</v>
       </c>
-      <c r="J50" s="4">
-        <v>7</v>
-      </c>
-      <c r="K50" s="4">
-        <v>-0.69622729999999999</v>
-      </c>
-      <c r="L50" s="4">
-        <v>-0.53668342099999999</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0.26062814299999998</v>
-      </c>
-      <c r="N50" s="4">
-        <v>0.206187705</v>
-      </c>
-      <c r="O50" s="4">
-        <v>-0.15769410910000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38499</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2">
         <v>1240</v>
@@ -2955,31 +2046,13 @@
       <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="2">
-        <v>24</v>
-      </c>
-      <c r="K51" s="2">
-        <v>-0.69744945800000002</v>
-      </c>
-      <c r="L51" s="2">
-        <v>-0.64422725800000002</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0.35772979100000002</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.71225343799999996</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0.29623635469999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>39360</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2">
         <v>1240</v>
@@ -2999,31 +2072,13 @@
       <c r="H52" s="2">
         <v>25</v>
       </c>
-      <c r="J52" s="2">
-        <v>43</v>
-      </c>
-      <c r="K52" s="2">
-        <v>-0.83339892599999998</v>
-      </c>
-      <c r="L52" s="2">
-        <v>2.8375460449999999</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0.317145385</v>
-      </c>
-      <c r="N52" s="2">
-        <v>9.2200188000000002E-2</v>
-      </c>
-      <c r="O52" s="2">
-        <v>-5.2574618900000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>38852</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4">
         <v>1180</v>
@@ -3043,31 +2098,13 @@
       <c r="H53" s="4">
         <v>0.6</v>
       </c>
-      <c r="J53" s="4">
-        <v>65</v>
-      </c>
-      <c r="K53" s="4">
-        <v>-0.91461641100000002</v>
-      </c>
-      <c r="L53" s="4">
-        <v>-0.69655349600000005</v>
-      </c>
-      <c r="M53" s="4">
-        <v>-1.532681239</v>
-      </c>
-      <c r="N53" s="4">
-        <v>-0.275262858</v>
-      </c>
-      <c r="O53" s="4">
-        <v>0.45207697920000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>39216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2">
         <v>1040</v>
@@ -3087,31 +2124,13 @@
       <c r="H54" s="2">
         <v>1.8</v>
       </c>
-      <c r="J54" s="2">
-        <v>36</v>
-      </c>
-      <c r="K54" s="2">
-        <v>-0.92115899700000003</v>
-      </c>
-      <c r="L54" s="2">
-        <v>-0.29274082200000001</v>
-      </c>
-      <c r="M54" s="2">
-        <v>-0.66136481999999996</v>
-      </c>
-      <c r="N54" s="2">
-        <v>-0.69806736199999997</v>
-      </c>
-      <c r="O54" s="2">
-        <v>-0.18050833229999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>38855</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C55" s="5">
         <v>1340</v>
@@ -3131,31 +2150,13 @@
       <c r="H55" s="4">
         <v>1</v>
       </c>
-      <c r="J55" s="4">
-        <v>78</v>
-      </c>
-      <c r="K55" s="4">
-        <v>-0.97281987299999995</v>
-      </c>
-      <c r="L55" s="4">
-        <v>-0.40167891</v>
-      </c>
-      <c r="M55" s="4">
-        <v>0.37780128600000001</v>
-      </c>
-      <c r="N55" s="4">
-        <v>-1.1211934999999999E-2</v>
-      </c>
-      <c r="O55" s="4">
-        <v>0.1036388883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>38850</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4">
         <v>1200</v>
@@ -3175,31 +2176,13 @@
       <c r="H56" s="4">
         <v>1</v>
       </c>
-      <c r="J56" s="4">
-        <v>15</v>
-      </c>
-      <c r="K56" s="4">
-        <v>-1.0013275639999999</v>
-      </c>
-      <c r="L56" s="4">
-        <v>-0.48004925300000001</v>
-      </c>
-      <c r="M56" s="4">
-        <v>9.0548646999999996E-2</v>
-      </c>
-      <c r="N56" s="4">
-        <v>0.16829797199999999</v>
-      </c>
-      <c r="O56" s="4">
-        <v>0.1161262015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38488</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
         <v>1280</v>
@@ -3219,31 +2202,13 @@
       <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="J57" s="2">
-        <v>17</v>
-      </c>
-      <c r="K57" s="2">
-        <v>-1.0128887280000001</v>
-      </c>
-      <c r="L57" s="2">
-        <v>-0.547535934</v>
-      </c>
-      <c r="M57" s="2">
-        <v>-0.35950734299999998</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0.40181350700000001</v>
-      </c>
-      <c r="O57" s="2">
-        <v>-0.50201668099999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>39216</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2">
         <v>1210</v>
@@ -3263,31 +2228,13 @@
       <c r="H58" s="2">
         <v>4.2</v>
       </c>
-      <c r="J58" s="2">
-        <v>37</v>
-      </c>
-      <c r="K58" s="2">
-        <v>-1.045780782</v>
-      </c>
-      <c r="L58" s="2">
-        <v>-2.6550644000000002E-2</v>
-      </c>
-      <c r="M58" s="2">
-        <v>-0.32010331600000003</v>
-      </c>
-      <c r="N58" s="2">
-        <v>-0.15729328400000001</v>
-      </c>
-      <c r="O58" s="2">
-        <v>-0.3115835112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>39210</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4">
         <v>1210</v>
@@ -3307,31 +2254,13 @@
       <c r="H59" s="4">
         <v>0</v>
       </c>
-      <c r="J59" s="4">
-        <v>45</v>
-      </c>
-      <c r="K59" s="4">
-        <v>-1.1172892990000001</v>
-      </c>
-      <c r="L59" s="4">
-        <v>-0.686978847</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0.17793569300000001</v>
-      </c>
-      <c r="N59" s="4">
-        <v>0.30579304099999999</v>
-      </c>
-      <c r="O59" s="4">
-        <v>0.77658129470000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38853</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2">
         <v>1280</v>
@@ -3351,31 +2280,13 @@
       <c r="H60" s="2">
         <v>0.6</v>
       </c>
-      <c r="J60" s="2">
-        <v>75</v>
-      </c>
-      <c r="K60" s="2">
-        <v>-1.1757389439999999</v>
-      </c>
-      <c r="L60" s="2">
-        <v>-0.47314444500000002</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0.29508141599999999</v>
-      </c>
-      <c r="N60" s="2">
-        <v>-0.22348373399999999</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0.3405078601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>38493</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4">
         <v>1280</v>
@@ -3395,31 +2306,13 @@
       <c r="H61" s="4">
         <v>0</v>
       </c>
-      <c r="J61" s="4">
-        <v>27</v>
-      </c>
-      <c r="K61" s="4">
-        <v>-1.1883524110000001</v>
-      </c>
-      <c r="L61" s="4">
-        <v>-0.66854642399999997</v>
-      </c>
-      <c r="M61" s="4">
-        <v>0.20902572999999999</v>
-      </c>
-      <c r="N61" s="4">
-        <v>0.39439345799999997</v>
-      </c>
-      <c r="O61" s="4">
-        <v>0.17154742849999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38488</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C62" s="2">
         <v>1260</v>
@@ -3439,31 +2332,13 @@
       <c r="H62" s="2">
         <v>0</v>
       </c>
-      <c r="J62" s="2">
-        <v>22</v>
-      </c>
-      <c r="K62" s="2">
-        <v>-1.202854621</v>
-      </c>
-      <c r="L62" s="2">
-        <v>-0.46434241300000001</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0.17762578500000001</v>
-      </c>
-      <c r="N62" s="2">
-        <v>-0.67174363599999998</v>
-      </c>
-      <c r="O62" s="2">
-        <v>-0.10568330350000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>39360</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2">
         <v>1220</v>
@@ -3483,31 +2358,13 @@
       <c r="H63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="2">
-        <v>41</v>
-      </c>
-      <c r="K63" s="2">
-        <v>-1.222253053</v>
-      </c>
-      <c r="L63" s="2">
-        <v>-0.70501974199999995</v>
-      </c>
-      <c r="M63" s="2">
-        <v>-0.26865809499999999</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0.12197368</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0.36052723930000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>39210</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C64" s="4">
         <v>1210</v>
@@ -3527,31 +2384,13 @@
       <c r="H64" s="4">
         <v>6</v>
       </c>
-      <c r="J64" s="4">
-        <v>2</v>
-      </c>
-      <c r="K64" s="4">
-        <v>-1.2223020410000001</v>
-      </c>
-      <c r="L64" s="4">
-        <v>6.4367255999999998E-2</v>
-      </c>
-      <c r="M64" s="4">
-        <v>7.0278016999999998E-2</v>
-      </c>
-      <c r="N64" s="4">
-        <v>0.44141704500000001</v>
-      </c>
-      <c r="O64" s="4">
-        <v>0.8261337675</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>39211</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4">
         <v>1200</v>
@@ -3571,31 +2410,13 @@
       <c r="H65" s="4">
         <v>6</v>
       </c>
-      <c r="J65" s="4">
-        <v>49</v>
-      </c>
-      <c r="K65" s="4">
-        <v>-1.2223020410000001</v>
-      </c>
-      <c r="L65" s="4">
-        <v>6.4367255999999998E-2</v>
-      </c>
-      <c r="M65" s="4">
-        <v>7.0278016999999998E-2</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0.44141704500000001</v>
-      </c>
-      <c r="O65" s="4">
-        <v>0.8261337675</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>39360</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2">
         <v>1190</v>
@@ -3615,31 +2436,13 @@
       <c r="H66" s="2">
         <v>1.2</v>
       </c>
-      <c r="J66" s="2">
-        <v>42</v>
-      </c>
-      <c r="K66" s="2">
-        <v>-1.2804180709999999</v>
-      </c>
-      <c r="L66" s="2">
-        <v>-0.49984477900000002</v>
-      </c>
-      <c r="M66" s="2">
-        <v>0.21858423199999999</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0.51011867600000005</v>
-      </c>
-      <c r="O66" s="2">
-        <v>-0.42357594320000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38853</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2">
         <v>1280</v>
@@ -3659,31 +2462,13 @@
       <c r="H67" s="2">
         <v>1</v>
       </c>
-      <c r="J67" s="2">
-        <v>16</v>
-      </c>
-      <c r="K67" s="2">
-        <v>-1.2992571239999999</v>
-      </c>
-      <c r="L67" s="2">
-        <v>-0.493876286</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0.194544986</v>
-      </c>
-      <c r="N67" s="2">
-        <v>-3.37437E-4</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0.38189500110000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>38489</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C68" s="4">
         <v>1240</v>
@@ -3703,31 +2488,13 @@
       <c r="H68" s="4">
         <v>0</v>
       </c>
-      <c r="J68" s="4">
-        <v>18</v>
-      </c>
-      <c r="K68" s="4">
-        <v>-1.381325804</v>
-      </c>
-      <c r="L68" s="4">
-        <v>-0.67903855599999996</v>
-      </c>
-      <c r="M68" s="4">
-        <v>-4.3674669999999999E-2</v>
-      </c>
-      <c r="N68" s="4">
-        <v>0.245168887</v>
-      </c>
-      <c r="O68" s="4">
-        <v>-0.21891029740000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>38496</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C69" s="4">
         <v>1290</v>
@@ -3747,31 +2514,13 @@
       <c r="H69" s="4">
         <v>0</v>
       </c>
-      <c r="J69" s="4">
-        <v>26</v>
-      </c>
-      <c r="K69" s="4">
-        <v>-1.446220702</v>
-      </c>
-      <c r="L69" s="4">
-        <v>-0.55122242700000001</v>
-      </c>
-      <c r="M69" s="4">
-        <v>0.247040172</v>
-      </c>
-      <c r="N69" s="4">
-        <v>-0.35167591599999998</v>
-      </c>
-      <c r="O69" s="4">
-        <v>-2.9308783500000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>39177</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2">
         <v>1200</v>
@@ -3791,31 +2540,13 @@
       <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="2">
-        <v>5</v>
-      </c>
-      <c r="K70" s="2">
-        <v>-1.5106655440000001</v>
-      </c>
-      <c r="L70" s="2">
-        <v>-0.69109956699999997</v>
-      </c>
-      <c r="M70" s="2">
-        <v>9.5605876000000006E-2</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0.14531134700000001</v>
-      </c>
-      <c r="O70" s="2">
-        <v>0.26577533990000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>38853</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C71" s="4">
         <v>1110</v>
@@ -3835,31 +2566,13 @@
       <c r="H71" s="4">
         <v>2</v>
       </c>
-      <c r="J71" s="4">
-        <v>74</v>
-      </c>
-      <c r="K71" s="4">
-        <v>-1.7027060329999999</v>
-      </c>
-      <c r="L71" s="4">
-        <v>-0.38963620100000002</v>
-      </c>
-      <c r="M71" s="4">
-        <v>-0.328798759</v>
-      </c>
-      <c r="N71" s="4">
-        <v>-0.27618257899999998</v>
-      </c>
-      <c r="O71" s="4">
-        <v>-0.39076170510000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>39299</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2">
         <v>1160</v>
@@ -3879,31 +2592,13 @@
       <c r="H72" s="2">
         <v>2.4</v>
       </c>
-      <c r="J72" s="2">
-        <v>3</v>
-      </c>
-      <c r="K72" s="2">
-        <v>-1.826224214</v>
-      </c>
-      <c r="L72" s="2">
-        <v>-0.41036804300000002</v>
-      </c>
-      <c r="M72" s="2">
-        <v>-0.42933518900000001</v>
-      </c>
-      <c r="N72" s="2">
-        <v>-5.3036280999999998E-2</v>
-      </c>
-      <c r="O72" s="2">
-        <v>-0.34937456410000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>39360</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2">
         <v>1200</v>
@@ -3923,31 +2618,13 @@
       <c r="H73" s="2">
         <v>2.4</v>
       </c>
-      <c r="J73" s="2">
-        <v>35</v>
-      </c>
-      <c r="K73" s="2">
-        <v>-2.0022434919999998</v>
-      </c>
-      <c r="L73" s="2">
-        <v>-0.39527051899999999</v>
-      </c>
-      <c r="M73" s="2">
-        <v>-4.1548412999999999E-2</v>
-      </c>
-      <c r="N73" s="2">
-        <v>1.6153298E-2</v>
-      </c>
-      <c r="O73" s="2">
-        <v>-0.29818190500000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>39330</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2">
         <v>1220</v>
@@ -3967,31 +2644,13 @@
       <c r="H74" s="2">
         <v>8.4</v>
       </c>
-      <c r="J74" s="2">
-        <v>40</v>
-      </c>
-      <c r="K74" s="2">
-        <v>-2.1072562339999998</v>
-      </c>
-      <c r="L74" s="2">
-        <v>0.35607558499999997</v>
-      </c>
-      <c r="M74" s="2">
-        <v>-0.14920608899999999</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.151777302</v>
-      </c>
-      <c r="O74" s="2">
-        <v>-0.2486294322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38995</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2">
         <v>1150</v>
@@ -4011,31 +2670,13 @@
       <c r="H75" s="2">
         <v>0</v>
       </c>
-      <c r="J75" s="2">
-        <v>53</v>
-      </c>
-      <c r="K75" s="2">
-        <v>-2.1701583160000002</v>
-      </c>
-      <c r="L75" s="2">
-        <v>-0.71718475599999998</v>
-      </c>
-      <c r="M75" s="2">
-        <v>-8.8382392000000004E-2</v>
-      </c>
-      <c r="N75" s="2">
-        <v>-0.241326502</v>
-      </c>
-      <c r="O75" s="2">
-        <v>-7.7830424100000004E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>38853</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C76" s="4">
         <v>1090</v>
@@ -4055,31 +2696,13 @@
       <c r="H76" s="4">
         <v>0</v>
       </c>
-      <c r="J76" s="4">
-        <v>66</v>
-      </c>
-      <c r="K76" s="4">
-        <v>-2.1701583160000002</v>
-      </c>
-      <c r="L76" s="4">
-        <v>-0.71718475599999998</v>
-      </c>
-      <c r="M76" s="4">
-        <v>-8.8382392000000004E-2</v>
-      </c>
-      <c r="N76" s="4">
-        <v>-0.241326502</v>
-      </c>
-      <c r="O76" s="4">
-        <v>-7.7830424100000004E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>38848</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C77" s="4">
         <v>1200</v>
@@ -4099,29 +2722,8 @@
       <c r="H77" s="4">
         <v>61</v>
       </c>
-      <c r="J77" s="4">
-        <v>68</v>
-      </c>
-      <c r="K77" s="4">
-        <v>-2.7468849020000001</v>
-      </c>
-      <c r="L77" s="4">
-        <v>6.9458197989999997</v>
-      </c>
-      <c r="M77" s="4">
-        <v>-1.0341980369999999</v>
-      </c>
-      <c r="N77" s="4">
-        <v>1.455377519</v>
-      </c>
-      <c r="O77" s="4">
-        <v>0.55064197579999996</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O77">
-    <sortCondition descending="1" ref="K2:K77"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data/phenotypes/Injury data.xlsx
+++ b/data/phenotypes/Injury data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vistor/Documents/Work/GitHub/PhD/ms_epi_effort/data/phenotypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD62982-3C44-FE45-A046-182C138BC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F0425-C15D-1647-ADC2-54AAFE5876C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -297,13 +297,52 @@
   </si>
   <si>
     <t>injury_belly</t>
+  </si>
+  <si>
+    <t>D229161</t>
+  </si>
+  <si>
+    <t>D229103</t>
+  </si>
+  <si>
+    <t>D229097</t>
+  </si>
+  <si>
+    <t>D229735</t>
+  </si>
+  <si>
+    <t>D229658</t>
+  </si>
+  <si>
+    <t>D229025</t>
+  </si>
+  <si>
+    <t>D229776</t>
+  </si>
+  <si>
+    <t>D237389</t>
+  </si>
+  <si>
+    <t>D229775</t>
+  </si>
+  <si>
+    <t>D237278</t>
+  </si>
+  <si>
+    <t>D237361</t>
+  </si>
+  <si>
+    <t>D237378</t>
+  </si>
+  <si>
+    <t>D229162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,12 +356,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -357,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -365,6 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2723,6 +2757,490 @@
         <v>61</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>38485</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>38485</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>38843</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>1190</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.6</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>38844</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1230</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>38847</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>1290</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>39206</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>1220</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>35</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83">
+        <v>1.5</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>39207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>1250</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>3.6</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>39207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85">
+        <v>1260</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>2.5</v>
+      </c>
+      <c r="H85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>39208</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <v>1350</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>0.8</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>39208</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>1310</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>39208</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88">
+        <v>1330</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>39209</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89">
+        <v>1180</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0.3</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>39209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90">
+        <v>1170</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>39211</v>
+      </c>
+      <c r="B91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91">
+        <v>1190</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>39211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92">
+        <v>1200</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>39212</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93">
+        <v>1200</v>
+      </c>
+      <c r="D93">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>39217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94">
+        <v>1210</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>60</v>
+      </c>
+      <c r="G94">
+        <v>0.9</v>
+      </c>
+      <c r="H94">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>39217</v>
+      </c>
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95">
+        <v>1100</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>39217</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96">
+        <v>1160</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1.2</v>
+      </c>
+      <c r="H96">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>39217</v>
+      </c>
+      <c r="B97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97">
+        <v>1220</v>
+      </c>
+      <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
+      </c>
+      <c r="H97">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
